--- a/data/turm/MEC-2A.xlsx
+++ b/data/turm/MEC-2A.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pedro Francisco-MTRM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pedro Francisco-MTRM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,12 +552,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Euclides-Mecanica material</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>João Rodrigues-CAD</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -616,12 +616,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Euclides-Mecanica material</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>João Rodrigues-CAD</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aline S. M.-Metalografia-2A, -, -, Aline S. M.-Metalografia-2A]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -761,12 +761,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aline S. M.-Metalografia-2A, Andre B.-Elet. Digi. Básica-2A, Andre B.-Elet. Digi. Básica-2A, Aline S. M.-Metalografia-2A]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ludoff-Maq. Term. Fluxo</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aderci-Tornearia-2A, Andre B.-Elet. Digi. Básica-2A, Andre B.-Elet. Digi. Básica-2A, Aderci-Tornearia-2A]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ludoff-Maq. Term. Fluxo</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Gilberto-Mec. Tec. Res. Mat.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aderci-Tornearia-2A, Claudinei-Des. Maq. CAD-T2-2A, Claudinei-Des. Maq. CAD-T2-2A, Aderci-Tornearia-2A]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Gilberto-Mec. Tec. Res. Mat.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Suzanny-Des. Maq. CAD-T1-2A, Claudinei-Des. Maq. CAD-T2-2A, Suzanny-Des. Maq. CAD-T1-2A, Suzanny-Des. Maq. CAD-T1-2A]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Anderson-Ajustagem-2A, Anderson-Ajustagem-2A, Anderson-Ajustagem-2A, Anderson-Ajustagem-2A]</t>
         </is>
       </c>
     </row>
@@ -985,17 +985,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[-, -, -, Prida-Mecanica material-2A]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[-, -, -, Prida-Mecanica material-2A]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[-, Prida-Mecanica material-2A, Podra-ELETRICA-2A, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[-, Podra-ELETRICA-2A, Podra-ELETRICA-2A, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1017,17 +1017,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[-, -, -, Prida-Mecanica material-2A]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[-, -, -, Prida-Mecanica material-2A]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[-, Prida-Mecanica material-2A, Podra-ELETRICA-2A, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[-, Podra-ELETRICA-2A, Podra-ELETRICA-2A, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1049,17 +1049,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[-, -, -, Prida-Mecanica material-2A]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[-, -, -, Prida-Mecanica material-2A]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[-, Prida-Mecanica material-2A, Podra-ELETRICA-2A, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[-, Podra-ELETRICA-2A, Podra-ELETRICA-2A, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1081,17 +1081,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[-, -, -, Prida-Mecanica material-2A]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[-, -, -, Prida-Mecanica material-2A]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[-, Prida-Mecanica material-2A, Podra-ELETRICA-2A, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[-, Podra-ELETRICA-2A, Podra-ELETRICA-2A, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-2A.xlsx
+++ b/data/turm/MEC-2A.xlsx
@@ -729,7 +729,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[Aline S. M.-Metalografia-2A, -, -, Aline S. M.-Metalografia-2A]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Suzanny-Des. Maq. Cad_T1-2A, Claudinei-Des. Maq. Cad_T2-2A]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -761,12 +761,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[Aline S. M.-Metalografia-2A, Andre B.-Elet. Digi. Básica-2A, Andre B.-Elet. Digi. Básica-2A, Aline S. M.-Metalografia-2A]</t>
+          <t>[Suzanny-Des. Maq. Cad_T1-2A, Suzanny-Des. Maq. Cad_T1-2A]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ludoff-Maq. Term. Fluxo</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aderci-Tornearia-2A, Aline S. M.-Metalografia-2A, Andre B.-Elet. Dig. Bas.-2A, Anderson-Ajustagem-2A]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -793,22 +793,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[Aderci-Tornearia-2A, Andre B.-Elet. Digi. Básica-2A, Andre B.-Elet. Digi. Básica-2A, Aderci-Tornearia-2A]</t>
+          <t>Ludoff-Máquinas Térmicas e de Fluxo</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ludoff-Maq. Term. Fluxo</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Gilberto-Mec. Tec. Res. Mat.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aderci-Tornearia-2A, Aline S. M.-Metalografia-2A, Andre B.-Elet. Dig. Bas.-2A, Anderson-Ajustagem-2A]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[Aderci-Tornearia-2A, Claudinei-Des. Maq. CAD-T2-2A, Claudinei-Des. Maq. CAD-T2-2A, Aderci-Tornearia-2A]</t>
+          <t>Gilberto-Mec. Tec. Res. Mat.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -867,12 +867,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Gilberto-Mec. Tec. Res. Mat.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aderci-Tornearia-2A, Aline S. M.-Metalografia-2A, Andre B.-Elet. Dig. Bas.-2A, Anderson-Ajustagem-2A]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[Suzanny-Des. Maq. CAD-T1-2A, Claudinei-Des. Maq. CAD-T2-2A, Suzanny-Des. Maq. CAD-T1-2A, Suzanny-Des. Maq. CAD-T1-2A]</t>
+          <t>Gilberto-Mec. Tec. Res. Mat.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aderci-Tornearia-2A, Aline S. M.-Metalografia-2A, Andre B.-Elet. Dig. Bas.-2A, Anderson-Ajustagem-2A]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[Anderson-Ajustagem-2A, Anderson-Ajustagem-2A, Anderson-Ajustagem-2A, Anderson-Ajustagem-2A]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ludoff-Máquinas Térmicas e de Fluxo</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Claudinei-Des. Maq. Cad_T2-2A, Claudinei-Des. Maq. Cad_T2-2A]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">

--- a/data/turm/MEC-2A.xlsx
+++ b/data/turm/MEC-2A.xlsx
@@ -744,12 +744,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[Suzanny-Des. Maq. Cad_T1-2A, Claudinei-Des. Maq. Cad_T2-2A]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aderci-Tornearia-2A, Andre B.-Elet. Dig. Bas.-2A, Aline S. M.-Metalografia-2A, Anderson-Ajustagem-2A]</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[Suzanny-Des. Maq. Cad_T1-2A, Suzanny-Des. Maq. Cad_T1-2A]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[Aderci-Tornearia-2A, Aline S. M.-Metalografia-2A, Andre B.-Elet. Dig. Bas.-2A, Anderson-Ajustagem-2A]</t>
+          <t>[Claudinei-Des. Maq. Cad_T2-2A, Claudinei-Des. Maq. Cad_T2-2A]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ludoff-Máquinas Térmicas e de Fluxo</t>
         </is>
       </c>
     </row>
@@ -793,27 +793,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>[Claudinei-Des. Maq. Cad_T2-2A, Suzanny-Des. Maq. Cad_T1-2A]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>Ludoff-Máquinas Térmicas e de Fluxo</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>[Aderci-Tornearia-2A, Aline S. M.-Metalografia-2A, Andre B.-Elet. Dig. Bas.-2A, Anderson-Ajustagem-2A]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Gilberto-Mec. Tec. Res. Mat.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -872,12 +872,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[Aderci-Tornearia-2A, Aline S. M.-Metalografia-2A, Andre B.-Elet. Dig. Bas.-2A, Anderson-Ajustagem-2A]</t>
+          <t>[Suzanny-Des. Maq. Cad_T1-2A, Suzanny-Des. Maq. Cad_T1-2A]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Anderson-Ajustagem-2A, Aline S. M.-Metalografia-2A, Aderci-Tornearia-2A, Andre B.-Elet. Dig. Bas.-2A]</t>
         </is>
       </c>
     </row>
@@ -889,27 +889,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Gilberto-Mec. Tec. Res. Mat.</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>[Aderci-Tornearia-2A, Aline S. M.-Metalografia-2A, Andre B.-Elet. Dig. Bas.-2A, Anderson-Ajustagem-2A]</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Anderson-Ajustagem-2A, Aline S. M.-Metalografia-2A, Aderci-Tornearia-2A, Andre B.-Elet. Dig. Bas.-2A]</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ludoff-Máquinas Térmicas e de Fluxo</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[Claudinei-Des. Maq. Cad_T2-2A, Claudinei-Des. Maq. Cad_T2-2A]</t>
+          <t>Gilberto-Mec. Tec. Res. Mat.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Anderson-Ajustagem-2A, Aline S. M.-Metalografia-2A, Aderci-Tornearia-2A, Andre B.-Elet. Dig. Bas.-2A]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-2A.xlsx
+++ b/data/turm/MEC-2A.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -749,7 +749,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[Aderci-Tornearia-2A, Andre B.-Elet. Dig. Bas.-2A, Aline S. M.-Metalografia-2A, Anderson-Ajustagem-2A]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -776,12 +776,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[Claudinei-Des. Maq. Cad_T2-2A, Claudinei-Des. Maq. Cad_T2-2A]</t>
+          <t>[Anderson-Ajustagem, Aline S. M.-Metalografia, Aderci-Tornearia, Andre B.-Elet. Dig. Bas.]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ludoff-Máquinas Térmicas e de Fluxo</t>
+          <t>Gilberto-Mec. Tec. Res. M</t>
         </is>
       </c>
     </row>
@@ -798,22 +798,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ludoff-Máquinas Térmicas e de Fl</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ludoff-Máquinas Térmicas e de Fl</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[Claudinei-Des. Maq. Cad_T2-2A, Suzanny-Des. Maq. Cad_T1-2A]</t>
+          <t>[Anderson-Ajustagem, Aline S. M.-Metalografia, Aderci-Tornearia, Andre B.-Elet. Dig. Bas.]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ludoff-Máquinas Térmicas e de Fluxo</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -862,7 +862,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Suzanny-Des. Maq. Cad_T1, Claudinei-Des. Maq. Cad_T2]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -872,12 +872,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[Suzanny-Des. Maq. Cad_T1-2A, Suzanny-Des. Maq. Cad_T1-2A]</t>
+          <t>[Anderson-Ajustagem, Aline S. M.-Metalografia, Aderci-Tornearia, Andre B.-Elet. Dig. Bas.]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[Anderson-Ajustagem-2A, Aline S. M.-Metalografia-2A, Aderci-Tornearia-2A, Andre B.-Elet. Dig. Bas.-2A]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -889,12 +889,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Gilberto-Mec. Tec. Res. M</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Suzanny-Des. Maq. Cad_T1, Claudinei-Des. Maq. Cad_T2]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Gilberto-Mec. Tec. Res. Mat.</t>
+          <t>[Anderson-Ajustagem, Aline S. M.-Metalografia, Aderci-Tornearia, Andre B.-Elet. Dig. Bas.]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[Anderson-Ajustagem-2A, Aline S. M.-Metalografia-2A, Aderci-Tornearia-2A, Andre B.-Elet. Dig. Bas.-2A]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Suzanny-Des. Maq. Cad_T1, Claudinei-Des. Maq. Cad_T2]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Gilberto-Mec. Tec. Res. Mat.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[Anderson-Ajustagem-2A, Aline S. M.-Metalografia-2A, Aderci-Tornearia-2A, Andre B.-Elet. Dig. Bas.-2A]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1106,6 +1106,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/turm/MEC-2A.xlsx
+++ b/data/turm/MEC-2A.xlsx
@@ -739,7 +739,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Gilberto-Mec. Tec. Res. M</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -766,22 +766,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ludoff-Máquinas Térmicas e de Fl</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Gilberto-Mec. Tec. Res. M</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>[Anderson-Ajustagem, Aline S. M.-Metalografia, Aderci-Tornearia, Andre B.-Elet. Dig. Bas.]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Gilberto-Mec. Tec. Res. M</t>
         </is>
       </c>
     </row>
@@ -798,22 +798,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ludoff-Máquinas Térmicas e de Fl</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ludoff-Máquinas Térmicas e de Fl</t>
+          <t>[Suzanny-Des. Maq. Cad_T1, Claudinei-Des. Maq. Cad_T2]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>[Anderson-Ajustagem, Aline S. M.-Metalografia, Aderci-Tornearia, Andre B.-Elet. Dig. Bas.]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -862,22 +862,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>[Suzanny-Des. Maq. Cad_T1, Claudinei-Des. Maq. Cad_T2]</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>[Anderson-Ajustagem, Aline S. M.-Metalografia, Aderci-Tornearia, Andre B.-Elet. Dig. Bas.]</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -889,27 +889,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Gilberto-Mec. Tec. Res. M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>[Suzanny-Des. Maq. Cad_T1, Claudinei-Des. Maq. Cad_T2]</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>[Anderson-Ajustagem, Aline S. M.-Metalografia, Aderci-Tornearia, Andre B.-Elet. Dig. Bas.]</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -926,12 +926,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[Suzanny-Des. Maq. Cad_T1, Claudinei-Des. Maq. Cad_T2]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ludoff-Máquinas Térmicas e de Fl</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">

--- a/data/turm/MEC-2A.xlsx
+++ b/data/turm/MEC-2A.xlsx
@@ -739,7 +739,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Gilberto-Mec. Tec. Res. M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -761,17 +761,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Anderson-Ajustagem, Andre B.-Elet. Dig. Bas., Aline S. M.-Metalografia, Aderci-Tornearia]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ludoff-Máquinas Térmicas e de Fl</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Gilberto-Mec. Tec. Res. M</t>
+          <t>[Suzanny-Des. Maq. Cad_T1, Claudinei-Des. Maq. Cad_T2]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[Anderson-Ajustagem, Aline S. M.-Metalografia, Aderci-Tornearia, Andre B.-Elet. Dig. Bas.]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Anderson-Ajustagem, Andre B.-Elet. Dig. Bas., Aline S. M.-Metalografia, Aderci-Tornearia]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[Anderson-Ajustagem, Aline S. M.-Metalografia, Aderci-Tornearia, Andre B.-Elet. Dig. Bas.]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Anderson-Ajustagem, Andre B.-Elet. Dig. Bas., Aline S. M.-Metalografia, Aderci-Tornearia]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[Anderson-Ajustagem, Aline S. M.-Metalografia, Aderci-Tornearia, Andre B.-Elet. Dig. Bas.]</t>
+          <t>Ludoff-Máquinas Térmicas e de Fl</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Anderson-Ajustagem, Andre B.-Elet. Dig. Bas., Aline S. M.-Metalografia, Aderci-Tornearia]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[Suzanny-Des. Maq. Cad_T1, Claudinei-Des. Maq. Cad_T2]</t>
+          <t>Gilberto-Mec. Tec. Res. M</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[Anderson-Ajustagem, Aline S. M.-Metalografia, Aderci-Tornearia, Andre B.-Elet. Dig. Bas.]</t>
+          <t>Ludoff-Máquinas Térmicas e de Fl</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Ludoff-Máquinas Térmicas e de Fl</t>
+          <t>Gilberto-Mec. Tec. Res. M</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">

--- a/data/turm/MEC-2A.xlsx
+++ b/data/turm/MEC-2A.xlsx
@@ -729,7 +729,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Gilberto-Mec. Tec. Res. M</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -761,17 +761,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[Anderson-Ajustagem, Andre B.-Elet. Dig. Bas., Aline S. M.-Metalografia, Aderci-Tornearia]</t>
+          <t>Gilberto-Mec. Tec. Res. M</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Andre B.-Elet. Dig. Bas., Anderson-Ajustagem, Aderci-Tornearia, Aline S. M.-Metalografia]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[Suzanny-Des. Maq. Cad_T1, Claudinei-Des. Maq. Cad_T2]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -793,22 +793,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[Anderson-Ajustagem, Andre B.-Elet. Dig. Bas., Aline S. M.-Metalografia, Aderci-Tornearia]</t>
+          <t>[Claudinei-Des. Maq. Cad_T2, Suzanny-Des. Maq. Cad_T1]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Andre B.-Elet. Dig. Bas., Anderson-Ajustagem, Aderci-Tornearia, Aline S. M.-Metalografia]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[Suzanny-Des. Maq. Cad_T1, Claudinei-Des. Maq. Cad_T2]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ludoff-Máquinas Térmicas e de Fl</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -857,17 +857,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[Anderson-Ajustagem, Andre B.-Elet. Dig. Bas., Aline S. M.-Metalografia, Aderci-Tornearia]</t>
+          <t>[Claudinei-Des. Maq. Cad_T2, Suzanny-Des. Maq. Cad_T1]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Andre B.-Elet. Dig. Bas., Anderson-Ajustagem, Aderci-Tornearia, Aline S. M.-Metalografia]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[Suzanny-Des. Maq. Cad_T1, Claudinei-Des. Maq. Cad_T2]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ludoff-Máquinas Térmicas e de Fl</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -889,17 +889,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[Anderson-Ajustagem, Andre B.-Elet. Dig. Bas., Aline S. M.-Metalografia, Aderci-Tornearia]</t>
+          <t>[Claudinei-Des. Maq. Cad_T2, Suzanny-Des. Maq. Cad_T1]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Andre B.-Elet. Dig. Bas., Anderson-Ajustagem, Aderci-Tornearia, Aline S. M.-Metalografia]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Gilberto-Mec. Tec. Res. M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ludoff-Máquinas Térmicas e de Fl</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ludoff-Máquinas Térmicas e de Fl</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Gilberto-Mec. Tec. Res. M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">

--- a/data/turm/MEC-2A.xlsx
+++ b/data/turm/MEC-2A.xlsx
@@ -729,7 +729,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gilberto-Mec. Tec. Res. M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -761,12 +761,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gilberto-Mec. Tec. Res. M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[Andre B.-Elet. Dig. Bas., Anderson-Ajustagem, Aderci-Tornearia, Aline S. M.-Metalografia]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[Claudinei-Des. Maq. Cad_T2, Suzanny-Des. Maq. Cad_T1]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[Andre B.-Elet. Dig. Bas., Anderson-Ajustagem, Aderci-Tornearia, Aline S. M.-Metalografia]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Ludoff-Máquinas Térmicas e de Fl</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -857,12 +857,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[Claudinei-Des. Maq. Cad_T2, Suzanny-Des. Maq. Cad_T1]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[Andre B.-Elet. Dig. Bas., Anderson-Ajustagem, Aderci-Tornearia, Aline S. M.-Metalografia]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[Claudinei-Des. Maq. Cad_T2, Suzanny-Des. Maq. Cad_T1]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[Andre B.-Elet. Dig. Bas., Anderson-Ajustagem, Aderci-Tornearia, Aline S. M.-Metalografia]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ludoff-Máquinas Térmicas e de Fl</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">

--- a/data/turm/MEC-2A.xlsx
+++ b/data/turm/MEC-2A.xlsx
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Gilberto-Mec. Tec. Res. M</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aline S. M.-Metalografia, Andre B.-Elet. Dig. Bas., Aderci-Tornearia, Anderson-Ajustagem]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Gilberto-Mec. Tec. Res. M</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -803,12 +803,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aline S. M.-Metalografia, Andre B.-Elet. Dig. Bas., Aderci-Tornearia, Anderson-Ajustagem]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Claudinei-Des. Maq. Cad_T2, Suzanny-Des. Maq. Cad_T1]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ludoff-Máquinas Térmicas e de Fl</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -867,12 +867,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aline S. M.-Metalografia, Andre B.-Elet. Dig. Bas., Aderci-Tornearia, Anderson-Ajustagem]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Claudinei-Des. Maq. Cad_T2, Suzanny-Des. Maq. Cad_T1]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ludoff-Máquinas Térmicas e de Fl</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -899,12 +899,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aline S. M.-Metalografia, Andre B.-Elet. Dig. Bas., Aderci-Tornearia, Anderson-Ajustagem]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Claudinei-Des. Maq. Cad_T2, Suzanny-Des. Maq. Cad_T1]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">

--- a/data/turm/MEC-2A.xlsx
+++ b/data/turm/MEC-2A.xlsx
@@ -744,12 +744,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, Cleidson-Elet. Digit. Básica, -]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Vinicius-Des. Maq. Cad.]</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gilberto-Mec. Tec. Res. M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -771,17 +771,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[Aline S. M.-Metalografia, Andre B.-Elet. Dig. Bas., Aderci-Tornearia, Anderson-Ajustagem]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, Cleidson-Elet. Digit. Básica, -]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ludoff-Maq. Term. FL</t>
         </is>
       </c>
     </row>
@@ -793,27 +793,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Gilberto-Mec. Tec. Res. M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Cleidson-Elet. Digit. Básica, -, -, -]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[Aline S. M.-Metalografia, Andre B.-Elet. Dig. Bas., Aderci-Tornearia, Anderson-Ajustagem]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[Claudinei-Des. Maq. Cad_T2, Suzanny-Des. Maq. Cad_T1]</t>
+          <t>[Aline S. M.-Metalografia, Vinicius-Ajustagem, Emerson-Elet. Digit. Básica, Carlos-Tornearia]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ludoff-Maq. Term. FL</t>
         </is>
       </c>
     </row>
@@ -857,27 +857,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ludoff-Máquinas Térmicas e de Fl</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Cleidson-Elet. Digit. Básica, -, -, -]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[Aline S. M.-Metalografia, Andre B.-Elet. Dig. Bas., Aderci-Tornearia, Anderson-Ajustagem]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[Claudinei-Des. Maq. Cad_T2, Suzanny-Des. Maq. Cad_T1]</t>
+          <t>[Aline S. M.-Metalografia, Vinicius-Ajustagem, Emerson-Elet. Digit. Básica, Carlos-Tornearia]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Nilton-Mec. Tec. Res. Mat, Claudinei-Des. Maq. Cad.]</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ludoff-Máquinas Térmicas e de Fl</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[Aline S. M.-Metalografia, Andre B.-Elet. Dig. Bas., Aderci-Tornearia, Anderson-Ajustagem]</t>
+          <t>[Vinicius-Des. Maq. Cad., -]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[Claudinei-Des. Maq. Cad_T2, Suzanny-Des. Maq. Cad_T1]</t>
+          <t>[Aline S. M.-Metalografia, Vinicius-Ajustagem, Emerson-Elet. Digit. Básica, Carlos-Tornearia]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Nilton-Mec. Tec. Res. Mat, Claudinei-Des. Maq. Cad.]</t>
         </is>
       </c>
     </row>
@@ -931,17 +931,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Vinicius-Des. Maq. Cad., -]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aline S. M.-Metalografia, Vinicius-Ajustagem, Emerson-Elet. Digit. Básica, Carlos-Tornearia]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Nilton-Mec. Tec. Res. Mat, Claudinei-Des. Maq. Cad.]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-2A.xlsx
+++ b/data/turm/MEC-2A.xlsx
@@ -729,7 +729,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Claudinei-Des. Maq. Cad.]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -744,12 +744,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[-, -, Cleidson-Elet. Digit. Básica, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[-, Vinicius-Des. Maq. Cad.]</t>
+          <t>[-, -, -, Cleidson-Elet. Digit. Básica]</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Nilton-Mec. Tec. Res. Mat, Vinicius-Des. Maq. Cad.]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[-, -, Cleidson-Elet. Digit. Básica, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ludoff-Maq. Term. FL</t>
+          <t>[-, -, -, Cleidson-Elet. Digit. Básica]</t>
         </is>
       </c>
     </row>
@@ -793,12 +793,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Nilton-Mec. Tec. Res. Mat, Vinicius-Des. Maq. Cad.]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[Cleidson-Elet. Digit. Básica, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[Aline S. M.-Metalografia, Vinicius-Ajustagem, Emerson-Elet. Digit. Básica, Carlos-Tornearia]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ludoff-Maq. Term. FL</t>
+          <t>[Aline S. M.-Metalografia, Carlos-Tornearia, Vinicius-Ajustagem, Emerson-Elet. Digit. Básica]</t>
         </is>
       </c>
     </row>
@@ -857,27 +857,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Nilton-Mec. Tec. Res. Mat, Vinicius-Des. Maq. Cad.]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[Cleidson-Elet. Digit. Básica, -, -, -]</t>
+          <t>Ludoff-Maq. Term. FL</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, Cleidson-Elet. Digit. Básica, -]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[Aline S. M.-Metalografia, Vinicius-Ajustagem, Emerson-Elet. Digit. Básica, Carlos-Tornearia]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[Nilton-Mec. Tec. Res. Mat, Claudinei-Des. Maq. Cad.]</t>
+          <t>[Aline S. M.-Metalografia, Carlos-Tornearia, Vinicius-Ajustagem, Emerson-Elet. Digit. Básica]</t>
         </is>
       </c>
     </row>
@@ -889,27 +889,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Claudinei-Des. Maq. Cad.]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ludoff-Maq. Term. FL</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[Vinicius-Des. Maq. Cad., -]</t>
+          <t>[-, -, Cleidson-Elet. Digit. Básica, -]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[Aline S. M.-Metalografia, Vinicius-Ajustagem, Emerson-Elet. Digit. Básica, Carlos-Tornearia]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[Nilton-Mec. Tec. Res. Mat, Claudinei-Des. Maq. Cad.]</t>
+          <t>[Aline S. M.-Metalografia, Carlos-Tornearia, Vinicius-Ajustagem, Emerson-Elet. Digit. Básica]</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Claudinei-Des. Maq. Cad.]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -931,17 +931,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[Vinicius-Des. Maq. Cad., -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[Aline S. M.-Metalografia, Vinicius-Ajustagem, Emerson-Elet. Digit. Básica, Carlos-Tornearia]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[Nilton-Mec. Tec. Res. Mat, Claudinei-Des. Maq. Cad.]</t>
+          <t>[Aline S. M.-Metalografia, Carlos-Tornearia, Vinicius-Ajustagem, Emerson-Elet. Digit. Básica]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-2A.xlsx
+++ b/data/turm/MEC-2A.xlsx
@@ -729,17 +729,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[-, Claudinei-Des. Maq. Cad.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ludoff-Maq. Term. FL</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Emerson-Elet. Digit. Básica, -, -, -]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[-, -, -, Cleidson-Elet. Digit. Básica]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -761,17 +761,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[Nilton-Mec. Tec. Res. Mat, Vinicius-Des. Maq. Cad.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ludoff-Maq. Term. FL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Emerson-Elet. Digit. Básica, Vinicius-Ajustagem, -, -]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[-, -, -, Cleidson-Elet. Digit. Básica]</t>
+          <t>[Claudinei-Des. Maq. Cad., -]</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[Nilton-Mec. Tec. Res. Mat, Vinicius-Des. Maq. Cad.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Cleidson-Elet. Digit. Básica, Vinicius-Ajustagem, Carlos-Tornearia, Aline S. M.-Metalografia]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[Aline S. M.-Metalografia, Carlos-Tornearia, Vinicius-Ajustagem, Emerson-Elet. Digit. Básica]</t>
+          <t>[Claudinei-Des. Maq. Cad., -]</t>
         </is>
       </c>
     </row>
@@ -857,27 +857,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[Nilton-Mec. Tec. Res. Mat, Vinicius-Des. Maq. Cad.]</t>
+          <t>[-, Emerson-Elet. Digit. Básica, -, -]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ludoff-Maq. Term. FL</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[-, -, Cleidson-Elet. Digit. Básica, -]</t>
+          <t>[Cleidson-Elet. Digit. Básica, Vinicius-Ajustagem, Carlos-Tornearia, Aline S. M.-Metalografia]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Nilton-Mec. Tec. Res. Mat]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[Aline S. M.-Metalografia, Carlos-Tornearia, Vinicius-Ajustagem, Emerson-Elet. Digit. Básica]</t>
+          <t>[Claudinei-Des. Maq. Cad., -]</t>
         </is>
       </c>
     </row>
@@ -889,27 +889,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[-, Claudinei-Des. Maq. Cad.]</t>
+          <t>[-, Emerson-Elet. Digit. Básica, -, -]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ludoff-Maq. Term. FL</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[-, -, Cleidson-Elet. Digit. Básica, -]</t>
+          <t>[Cleidson-Elet. Digit. Básica, Vinicius-Ajustagem, Carlos-Tornearia, Aline S. M.-Metalografia]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Vinicius-Des. Maq. Cad., Nilton-Mec. Tec. Res. Mat]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[Aline S. M.-Metalografia, Carlos-Tornearia, Vinicius-Ajustagem, Emerson-Elet. Digit. Básica]</t>
+          <t>[Vinicius-Des. Maq. Cad., -]</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[-, Claudinei-Des. Maq. Cad.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -931,17 +931,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Cleidson-Elet. Digit. Básica, -, Carlos-Tornearia, Aline S. M.-Metalografia]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Nilton-Mec. Tec. Res. Mat]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[Aline S. M.-Metalografia, Carlos-Tornearia, Vinicius-Ajustagem, Emerson-Elet. Digit. Básica]</t>
+          <t>[Vinicius-Des. Maq. Cad., -]</t>
         </is>
       </c>
     </row>
